--- a/result/optimized_cross_validation_results.xlsx
+++ b/result/optimized_cross_validation_results.xlsx
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>生成時間: 2025年11月26日 15:11:25</t>
+          <t>生成時間: 2025年11月26日 22:25:42</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -679,114 +679,264 @@
         <v>0.05735526372190169</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9453726035868893</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03633425436116611</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7610404305839088</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06705402506251439</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8536796536796537</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.06530342847838295</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8031665367069095</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.05795802198587621</v>
+      </c>
+    </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9501620998049571</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04200060818236147</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9223821809425525</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.05123806794808589</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7545454545454545</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.08762999777579215</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8265242844446952</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0632352253574678</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9457888936460366</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03661345954410972</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7699066730371078</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.06890832398860543</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8534632034632035</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.06925087807288752</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8082676468306305</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06212168260891618</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>測試集結果</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>Recall</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>F1</t>
         </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9237977560518057</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8761904761904762</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.8679245283018868</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.8720379146919431</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9744759911973737</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8363636363636363</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.8679245283018868</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8518518518518519</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9918287095494066</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.8679245283018868</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.9108910891089109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0.9237977560518057</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8761904761904762</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8679245283018868</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8720379146919431</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9744759911973737</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8363636363636363</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8679245283018868</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8518518518518519</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9918287095494066</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8679245283018868</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9108910891089109</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>0.9684151664922976</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>0.9540229885057471</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>0.7830188679245284</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E18" t="n">
         <v>0.8601036269430051</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9521267000974061</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8138528138528138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9643205021826183</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8490566037735849</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8910891089108911</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9521447382661713</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7786885245901639</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8962264150943396</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -958,7 +1108,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -986,114 +1136,264 @@
         <v>0.07640237943118518</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7394741865277579</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04524421083967355</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.301760993984675</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03622185546048782</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6714285714285715</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1206767707740037</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4154317869658457</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.05600247232792866</v>
+      </c>
+    </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7303514243692815</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04888172274239282</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4059745336661812</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.08884917712832813</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3681818181818182</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0559300825555232</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3845069902018285</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.06559987097549588</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7388930414823272</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04370804067492642</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3039292659642677</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03786502899944486</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6714285714285715</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1206767707740037</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4174657281778691</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.05737539001038796</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>測試集結果</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>Recall</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>F1</t>
         </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5851762329088351</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2611111111111111</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.4433962264150944</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.3286713286713286</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.7158266892745049</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2947976878612717</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.4811320754716981</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.3655913978494624</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.7284985028319925</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2991452991452991</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.330188679245283</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.3139013452914798</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0.5851762329088351</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2611111111111111</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4433962264150944</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3286713286713286</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7158266892745049</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2947976878612717</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4811320754716981</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3655913978494624</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7284985028319925</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2991452991452991</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.330188679245283</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3139013452914798</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>0.6993578411919621</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>0.3418803418803419</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>0.3773584905660378</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E18" t="n">
         <v>0.3587443946188341</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7236011400122659</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2652173913043478</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5754716981132075</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3630952380952381</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7024964825570907</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3737373737373738</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3490566037735849</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3609756097560975</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7241783614127494</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2663755458515284</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5754716981132075</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3641791044776119</v>
       </c>
     </row>
   </sheetData>
@@ -1107,7 +1407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1265,7 +1565,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1293,114 +1593,264 @@
         <v>0.08536989268386849</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8719922934208647</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03999272891959237</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4719437084154049</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05078372128017337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7688311688311689</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.06420805138713993</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.583475435848561</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0502038445331516</v>
+      </c>
+    </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8418001244786959</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0510386450130622</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5684387351778656</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.120712299355454</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1059456926727952</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5408803857641067</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1003059478214524</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8731387659959088</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03927127467333981</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4744295603732991</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.05054510026486287</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7688311688311689</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.06420805138713993</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5855567817750915</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.05098277231384536</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>測試集結果</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>Recall</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>F1</t>
         </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.661549839460298</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3680981595092024</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5660377358490566</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.4460966542750929</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8589054439193333</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4748201438848921</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.6226415094339622</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5387755102040817</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.85327753526462</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5795454545454546</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.4811320754716981</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5257731958762887</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0.661549839460298</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3680981595092024</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5660377358490566</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4460966542750929</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8589054439193333</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4748201438848921</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6226415094339622</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5387755102040817</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.85327753526462</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5795454545454546</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4811320754716981</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5257731958762887</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>0.8315956564089615</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>0.5</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>0.5471698113207547</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E18" t="n">
         <v>0.5225225225225225</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8714419712110828</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4529411764705882</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7264150943396226</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5579710144927537</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.836673400916339</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5544554455445545</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5283018867924528</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5410628019323671</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8713878567047872</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4502923976608187</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7264150943396226</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.555956678700361</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1572,7 +2022,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1600,114 +2050,264 @@
         <v>0.08220631213743207</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.953670634920635</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03088611569232902</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7526641002237076</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05786267603414144</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8720779220779221</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.08023532460413361</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8054611756876646</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.05306337911774464</v>
+      </c>
+    </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.957070905285191</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03689523958864937</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8991573240141351</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.08775458450796338</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7313852813852814</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1288795192168517</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7980713411435566</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.09747433202927559</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.954217944753659</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03177504542670831</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7500737306172088</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.06350505835631735</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8720779220779221</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.08023532460413361</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8040396017419635</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.05816511604590303</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>測試集結果</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>Recall</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>F1</t>
         </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8867563764926585</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8113207547169812</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.8113207547169812</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.8113207547169812</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9685775100111838</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8383838383838383</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.7830188679245284</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8097560975609757</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9922796637685343</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9761904761904762</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7735849056603774</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.8631578947368421</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0.8867563764926585</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8113207547169812</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9685775100111838</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8383838383838383</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7830188679245284</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8097560975609757</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9922796637685343</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7735849056603774</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8631578947368421</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>0.9702189833688084</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>0.9176470588235294</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>0.7358490566037735</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E18" t="n">
         <v>0.8167539267015707</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9574479598831126</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.753968253968254</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8962264150943396</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8189655172413793</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9647534182329809</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7735849056603774</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8282828282828283</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9603160287167647</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7698412698412699</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9150943396226415</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8362068965517241</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +2321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1879,7 +2479,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1907,114 +2507,264 @@
         <v>0.0768196614682054</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9592787173144316</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02992970751240772</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7301058572722741</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.07966632188785469</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8634199134199134</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.06479385801066621</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7887476763699061</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.06238075977808094</v>
+      </c>
+    </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9581452872524302</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02589723034684736</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8940070150867363</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07617426772124321</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7688311688311689</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.07783063417478475</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8248636143372986</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.06588042960929361</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9605441582227296</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03020446047223766</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7536618223710162</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.09094261005940667</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8586580086580087</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.07327439276698511</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.798619779610131</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0660950908144448</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>測試集結果</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>Recall</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>F1</t>
         </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9063819041090948</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8557692307692307</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.839622641509434</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.8476190476190476</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9859121901944514</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.898989898989899</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.839622641509434</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8682926829268293</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9888524117031638</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9651162790697675</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7830188679245284</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.8645833333333334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0.9063819041090948</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8557692307692307</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.839622641509434</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8476190476190476</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9859121901944514</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.898989898989899</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.839622641509434</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8682926829268293</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9888524117031638</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9651162790697675</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7830188679245284</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8645833333333334</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>0.9757747393484614</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>0.9111111111111111</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>0.7735849056603774</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E18" t="n">
         <v>0.8367346938775511</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9695876474620296</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7322834645669292</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8773584905660378</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7982832618025751</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9786969226884088</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8712871287128713</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9729427468523396</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7661290322580645</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8962264150943396</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8260869565217391</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2186,7 +2936,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2214,114 +2964,264 @@
         <v>0.07905139875007573</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9605073299716155</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02759670814699682</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7492090722850583</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09019833169670703</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8818181818181818</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.07145611432765878</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.80670184733552</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.07149293157323351</v>
+      </c>
+    </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9451744485673057</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03927409180352586</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8661275952028408</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1169348880958243</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7082251082251083</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1004329004329004</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7730668738495514</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.08407649911763659</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9620465249036678</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02732972053016385</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7526568226696104</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1058348700290744</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8772727272727273</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.06804975873019091</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8041614659177588</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06963367870509587</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>測試集結果</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>Recall</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>F1</t>
         </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8876853421840615</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.819047619047619</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.8113207547169812</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.8151658767772512</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9783361593131065</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8811881188118812</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.839622641509434</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8599033816425121</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9906742667484397</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9753086419753086</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7452830188679245</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.8449197860962567</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0.8876853421840615</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.819047619047619</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8151658767772512</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9783361593131065</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8811881188118812</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.839622641509434</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8599033816425121</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9906742667484397</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9753086419753086</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7452830188679245</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8449197860962567</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>0.9693892276056135</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>0.9438202247191011</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>0.7924528301886793</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E18" t="n">
         <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9585663263465494</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7642276422764228</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8209606986899564</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9684151664922978</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8877551020408163</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8207547169811321</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8529411764705882</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9611818608174898</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7704918032786885</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8245614035087719</v>
       </c>
     </row>
   </sheetData>

--- a/result/optimized_cross_validation_results.xlsx
+++ b/result/optimized_cross_validation_results.xlsx
@@ -11,9 +11,10 @@
     <sheet name="a-x_優化版" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="y_優化版" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="z_優化版" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="a-y_優化版" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="a-x,z_優化版" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="a-z_優化版" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="y-z_優化版" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="a-y_優化版" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="a-x,z_優化版" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="a-z_優化版" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>生成時間: 2025年11月26日 22:25:42</t>
+          <t>生成時間: 2025年11月26日 23:29:51</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1876,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>a-y 特徵組合 - 優化交叉驗證結果</t>
+          <t>y-z 特徵組合 - 優化交叉驗證結果</t>
         </is>
       </c>
     </row>
@@ -1933,28 +1934,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8801889875997018</v>
+        <v>0.6936457689136261</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03458818380009469</v>
+        <v>0.05342195792609176</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8201728826728825</v>
+        <v>0.3876180315654</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1014254963346825</v>
+        <v>0.09773256024242352</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7935064935064935</v>
+        <v>0.5915584415584416</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07261380552817924</v>
+        <v>0.1479419416126367</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8002153048936261</v>
+        <v>0.4614352447963565</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05375342326161874</v>
+        <v>0.09407443193743359</v>
       </c>
     </row>
     <row r="5">
@@ -1964,28 +1965,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9702776390276389</v>
+        <v>0.8642848024990881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02094064845092177</v>
+        <v>0.02884861379809901</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8619022556390977</v>
+        <v>0.5289697904733576</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06769190229058693</v>
+        <v>0.07934484389724804</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8160173160173159</v>
+        <v>0.5432900432900433</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04926323236684434</v>
+        <v>0.08956959985127996</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8360793541398488</v>
+        <v>0.5339695206221248</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03808681909261494</v>
+        <v>0.07758415771618526</v>
       </c>
     </row>
     <row r="6">
@@ -1995,28 +1996,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9910077026148455</v>
+        <v>0.8651008713508714</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007714499528352137</v>
+        <v>0.02277236365303322</v>
       </c>
       <c r="D6" t="n">
-        <v>0.969579279080053</v>
+        <v>0.5665390440313041</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03073204602827501</v>
+        <v>0.1126992365935153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7361471861471862</v>
+        <v>0.4437229437229438</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09212976598310435</v>
+        <v>0.05066969658320186</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8337724968529923</v>
+        <v>0.4946774696072701</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06164071552501225</v>
+        <v>0.06629079862402136</v>
       </c>
     </row>
     <row r="7">
@@ -2026,28 +2027,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9577912960055818</v>
+        <v>0.866926565497994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02599608612009955</v>
+        <v>0.04008217577004333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8816795051353875</v>
+        <v>0.5538518241304619</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08701194137785064</v>
+        <v>0.1094690014122843</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7216450216450216</v>
+        <v>0.5296536796536797</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1128874517807484</v>
+        <v>0.1064444419405241</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7873121913896088</v>
+        <v>0.5391746746062757</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08220631213743207</v>
+        <v>0.09986774453413884</v>
       </c>
     </row>
     <row r="8">
@@ -2057,28 +2058,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.953670634920635</v>
+        <v>0.875244239887097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03088611569232902</v>
+        <v>0.03617141519468053</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7526641002237076</v>
+        <v>0.4810513684043095</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05786267603414144</v>
+        <v>0.05477953511721348</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8720779220779221</v>
+        <v>0.7452380952380951</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08023532460413361</v>
+        <v>0.08780545209489912</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8054611756876646</v>
+        <v>0.5823850898003441</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05306337911774464</v>
+        <v>0.05583073755707317</v>
       </c>
     </row>
     <row r="9">
@@ -2088,28 +2089,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.957070905285191</v>
+        <v>0.8571503496503496</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03689523958864937</v>
+        <v>0.04843839596555128</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8991573240141351</v>
+        <v>0.5544923015917094</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08775458450796338</v>
+        <v>0.1035610385472613</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7313852813852814</v>
+        <v>0.5380952380952381</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1288795192168517</v>
+        <v>0.1419728633314398</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7980713411435566</v>
+        <v>0.5425493402442998</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09747433202927559</v>
+        <v>0.1197618521857133</v>
       </c>
     </row>
     <row r="10">
@@ -2119,28 +2120,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.954217944753659</v>
+        <v>0.876220783185069</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03177504542670831</v>
+        <v>0.03576636313898543</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7500737306172088</v>
+        <v>0.4785820761052959</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06350505835631735</v>
+        <v>0.05417098795393032</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8720779220779221</v>
+        <v>0.7404761904761904</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08023532460413361</v>
+        <v>0.08046855206409373</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8040396017419635</v>
+        <v>0.5790449456926361</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05816511604590303</v>
+        <v>0.05233845411926894</v>
       </c>
     </row>
     <row r="12">
@@ -2184,16 +2185,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8867563764926585</v>
+        <v>0.6668260038240919</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.3918918918918919</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.4566929133858268</v>
       </c>
     </row>
     <row r="16">
@@ -2203,16 +2204,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9685775100111838</v>
+        <v>0.8613586348713879</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8383838383838383</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7830188679245284</v>
+        <v>0.5566037735849056</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8097560975609757</v>
+        <v>0.5221238938053098</v>
       </c>
     </row>
     <row r="17">
@@ -2222,16 +2223,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9922796637685343</v>
+        <v>0.8649031350337314</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.654320987654321</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7735849056603774</v>
+        <v>0.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8631578947368421</v>
+        <v>0.5668449197860963</v>
       </c>
     </row>
     <row r="18">
@@ -2241,16 +2242,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9702189833688084</v>
+        <v>0.8683935206897795</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9176470588235294</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7358490566037735</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8167539267015707</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="19">
@@ -2260,16 +2261,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9574479598831126</v>
+        <v>0.8634871387856705</v>
       </c>
       <c r="C19" t="n">
-        <v>0.753968253968254</v>
+        <v>0.4670658682634731</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8962264150943396</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8189655172413793</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="20">
@@ -2279,16 +2280,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9647534182329809</v>
+        <v>0.8528806955517876</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8913043478260869</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7735849056603774</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8282828282828283</v>
+        <v>0.5174129353233831</v>
       </c>
     </row>
     <row r="21">
@@ -2298,16 +2299,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9603160287167647</v>
+        <v>0.8648760777805837</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7698412698412699</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9150943396226415</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8362068965517241</v>
+        <v>0.5756457564575646</v>
       </c>
     </row>
   </sheetData>
@@ -2332,7 +2333,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>a-x,z 特徵組合 - 優化交叉驗證結果</t>
+          <t>a-y 特徵組合 - 優化交叉驗證結果</t>
         </is>
       </c>
     </row>
@@ -2390,28 +2391,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8818814221492792</v>
+        <v>0.8801889875997018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03172191709779444</v>
+        <v>0.03458818380009469</v>
       </c>
       <c r="D4" t="n">
-        <v>0.832011624426485</v>
+        <v>0.8201728826728825</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09620061904704308</v>
+        <v>0.1014254963346825</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7928571428571429</v>
+        <v>0.7935064935064935</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05074407466810438</v>
+        <v>0.07261380552817924</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8099547836340684</v>
+        <v>0.8002153048936261</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06425753709392754</v>
+        <v>0.05375342326161874</v>
       </c>
     </row>
     <row r="5">
@@ -2421,28 +2422,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9762943009371581</v>
+        <v>0.9702776390276389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0205085674734797</v>
+        <v>0.02094064845092177</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9136998746867168</v>
+        <v>0.8619022556390977</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0707422176012165</v>
+        <v>0.06769190229058693</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8207792207792208</v>
+        <v>0.8160173160173159</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07872244083315241</v>
+        <v>0.04926323236684434</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8628775827556314</v>
+        <v>0.8360793541398488</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06379927087176528</v>
+        <v>0.03808681909261494</v>
       </c>
     </row>
     <row r="6">
@@ -2452,28 +2453,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9882730463980464</v>
+        <v>0.9910077026148455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01204509565489152</v>
+        <v>0.007714499528352137</v>
       </c>
       <c r="D6" t="n">
-        <v>0.963186274509804</v>
+        <v>0.969579279080053</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03014143897882044</v>
+        <v>0.03073204602827501</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7361471861471861</v>
+        <v>0.7361471861471862</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04105085494440035</v>
+        <v>0.09212976598310435</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8340585524796051</v>
+        <v>0.8337724968529923</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03404294063762105</v>
+        <v>0.06164071552501225</v>
       </c>
     </row>
     <row r="7">
@@ -2483,28 +2484,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9544107281607281</v>
+        <v>0.9577912960055818</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03139673831082442</v>
+        <v>0.02599608612009955</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9088725490196079</v>
+        <v>0.8816795051353875</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06740586441458853</v>
+        <v>0.08701194137785064</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7170995670995671</v>
+        <v>0.7216450216450216</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09221922372891915</v>
+        <v>0.1128874517807484</v>
       </c>
       <c r="H7" t="n">
-        <v>0.800126293964548</v>
+        <v>0.7873121913896088</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0768196614682054</v>
+        <v>0.08220631213743207</v>
       </c>
     </row>
     <row r="8">
@@ -2514,28 +2515,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9592787173144316</v>
+        <v>0.953670634920635</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02992970751240772</v>
+        <v>0.03088611569232902</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7301058572722741</v>
+        <v>0.7526641002237076</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07966632188785469</v>
+        <v>0.05786267603414144</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8634199134199134</v>
+        <v>0.8720779220779221</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06479385801066621</v>
+        <v>0.08023532460413361</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7887476763699061</v>
+        <v>0.8054611756876646</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06238075977808094</v>
+        <v>0.05306337911774464</v>
       </c>
     </row>
     <row r="9">
@@ -2545,28 +2546,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9581452872524302</v>
+        <v>0.957070905285191</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02589723034684736</v>
+        <v>0.03689523958864937</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8940070150867363</v>
+        <v>0.8991573240141351</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07617426772124321</v>
+        <v>0.08775458450796338</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7688311688311689</v>
+        <v>0.7313852813852814</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07783063417478475</v>
+        <v>0.1288795192168517</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8248636143372986</v>
+        <v>0.7980713411435566</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06588042960929361</v>
+        <v>0.09747433202927559</v>
       </c>
     </row>
     <row r="10">
@@ -2576,28 +2577,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9605441582227296</v>
+        <v>0.954217944753659</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03020446047223766</v>
+        <v>0.03177504542670831</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7536618223710162</v>
+        <v>0.7500737306172088</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09094261005940667</v>
+        <v>0.06350505835631735</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8586580086580087</v>
+        <v>0.8720779220779221</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07327439276698511</v>
+        <v>0.08023532460413361</v>
       </c>
       <c r="H10" t="n">
-        <v>0.798619779610131</v>
+        <v>0.8040396017419635</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0660950908144448</v>
+        <v>0.05816511604590303</v>
       </c>
     </row>
     <row r="12">
@@ -2641,16 +2642,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9063819041090948</v>
+        <v>0.8867563764926585</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8557692307692307</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="D15" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8113207547169812</v>
       </c>
     </row>
     <row r="16">
@@ -2660,16 +2661,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9859121901944514</v>
+        <v>0.9685775100111838</v>
       </c>
       <c r="C16" t="n">
-        <v>0.898989898989899</v>
+        <v>0.8383838383838383</v>
       </c>
       <c r="D16" t="n">
-        <v>0.839622641509434</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8682926829268293</v>
+        <v>0.8097560975609757</v>
       </c>
     </row>
     <row r="17">
@@ -2679,16 +2680,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9888524117031638</v>
+        <v>0.9922796637685343</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9651162790697675</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7830188679245284</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8645833333333334</v>
+        <v>0.8631578947368421</v>
       </c>
     </row>
     <row r="18">
@@ -2698,16 +2699,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9757747393484614</v>
+        <v>0.9702189833688084</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7735849056603774</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8167539267015707</v>
       </c>
     </row>
     <row r="19">
@@ -2717,16 +2718,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9695876474620296</v>
+        <v>0.9574479598831126</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7322834645669292</v>
+        <v>0.753968253968254</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8773584905660378</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7982832618025751</v>
+        <v>0.8189655172413793</v>
       </c>
     </row>
     <row r="20">
@@ -2736,16 +2737,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9786969226884088</v>
+        <v>0.9647534182329809</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8301886792452831</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8712871287128713</v>
+        <v>0.8282828282828283</v>
       </c>
     </row>
     <row r="21">
@@ -2755,16 +2756,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9729427468523396</v>
+        <v>0.9603160287167647</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7661290322580645</v>
+        <v>0.7698412698412699</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8962264150943396</v>
+        <v>0.9150943396226415</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.8362068965517241</v>
       </c>
     </row>
   </sheetData>
@@ -2789,6 +2790,463 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>a-x,z 特徵組合 - 優化交叉驗證結果</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>AUC_Mean</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>AUC_Std</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Precision_Mean</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Precision_Std</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Recall_Mean</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Recall_Std</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>F1_Mean</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>F1_Std</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8818814221492792</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03172191709779444</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.832011624426485</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.09620061904704308</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7928571428571429</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.05074407466810438</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8099547836340684</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.06425753709392754</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9762943009371581</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0205085674734797</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9136998746867168</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0707422176012165</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8207792207792208</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.07872244083315241</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8628775827556314</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.06379927087176528</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9882730463980464</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01204509565489152</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.963186274509804</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.03014143897882044</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7361471861471861</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04105085494440035</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8340585524796051</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.03404294063762105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9544107281607281</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.03139673831082442</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9088725490196079</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.06740586441458853</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7170995670995671</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.09221922372891915</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.800126293964548</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0768196614682054</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9592787173144316</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02992970751240772</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7301058572722741</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.07966632188785469</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8634199134199134</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.06479385801066621</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7887476763699061</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.06238075977808094</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9581452872524302</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02589723034684736</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8940070150867363</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07617426772124321</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7688311688311689</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.07783063417478475</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8248636143372986</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.06588042960929361</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9605441582227296</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03020446047223766</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7536618223710162</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.09094261005940667</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8586580086580087</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.07327439276698511</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.798619779610131</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0660950908144448</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>測試集結果</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9063819041090948</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8557692307692307</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.839622641509434</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8476190476190476</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9859121901944514</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.898989898989899</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.839622641509434</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8682926829268293</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9888524117031638</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9651162790697675</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7830188679245284</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8645833333333334</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9757747393484614</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9111111111111111</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7735849056603774</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8367346938775511</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9695876474620296</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7322834645669292</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8773584905660378</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7982832618025751</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9786969226884088</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8712871287128713</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9729427468523396</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7661290322580645</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8962264150943396</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
           <t>a-z 特徵組合 - 優化交叉驗證結果</t>
         </is>
       </c>

--- a/result/optimized_cross_validation_results.xlsx
+++ b/result/optimized_cross_validation_results.xlsx
@@ -472,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>生成時間: 2025年11月26日 23:29:51</t>
+          <t>生成時間: 2025年11月28日 16:40:41</t>
         </is>
       </c>
     </row>

--- a/result/optimized_cross_validation_results.xlsx
+++ b/result/optimized_cross_validation_results.xlsx
@@ -472,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>生成時間: 2025年11月28日 16:40:41</t>
+          <t>生成時間: 2025年12月01日 22:42:35</t>
         </is>
       </c>
     </row>
@@ -563,28 +563,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.897968142968143</v>
+        <v>0.9067311755704612</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02976892616521996</v>
+        <v>0.02886380189824668</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8276166796166796</v>
+        <v>0.8272902425792452</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09386700445173785</v>
+        <v>0.0630505115717271</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8307359307359306</v>
+        <v>0.8495670995670996</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05872785413718309</v>
+        <v>0.05675166174097019</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8243691131665688</v>
+        <v>0.8354447047988197</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04640297939605078</v>
+        <v>0.03579305928216342</v>
       </c>
     </row>
     <row r="5">
@@ -594,28 +594,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9683363858363858</v>
+        <v>0.9658783874855302</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03104642103080565</v>
+        <v>0.03261233287626179</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8513065767184761</v>
+        <v>0.8263906916881745</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06770471382081308</v>
+        <v>0.07833544264332482</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8679653679653679</v>
+        <v>0.8541125541125542</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05111159183773313</v>
+        <v>0.06079284759860278</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8585521858238817</v>
+        <v>0.8373611325094531</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05307307866399454</v>
+        <v>0.05508584167528149</v>
       </c>
     </row>
     <row r="6">
@@ -625,28 +625,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9933426692355264</v>
+        <v>0.9844019274376417</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006203841769451891</v>
+        <v>0.01128958754328386</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9661111111111111</v>
+        <v>0.9422170622635019</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02793842435706703</v>
+        <v>0.04793011121689573</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8112554112554111</v>
+        <v>0.7170995670995671</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07042985383353895</v>
+        <v>0.04125123194195624</v>
       </c>
       <c r="H6" t="n">
-        <v>0.880621268406891</v>
+        <v>0.8125835838219739</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04858368129253411</v>
+        <v>0.02506740224580487</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9430263982049695</v>
+        <v>0.954204882419168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0406578747127375</v>
+        <v>0.0400150961191443</v>
       </c>
       <c r="D7" t="n">
-        <v>0.921045123177476</v>
+        <v>0.9300770475654376</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05460561738797848</v>
+        <v>0.06346771665799854</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6980519480519481</v>
+        <v>0.7649350649350649</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07681543421135145</v>
+        <v>0.1319430524782597</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7914437335644766</v>
+        <v>0.8318248577092653</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05735526372190169</v>
+        <v>0.08775493237350346</v>
       </c>
     </row>
     <row r="8">
@@ -687,28 +687,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9453726035868893</v>
+        <v>0.9451683633826491</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03633425436116611</v>
+        <v>0.03886844729213765</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7610404305839088</v>
+        <v>0.7552414360585276</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06705402506251439</v>
+        <v>0.08248432652226531</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8536796536796537</v>
+        <v>0.8673160173160172</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06530342847838295</v>
+        <v>0.08236520904272042</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8031665367069095</v>
+        <v>0.8056212501651909</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05795802198587621</v>
+        <v>0.07503110194773994</v>
       </c>
     </row>
     <row r="9">
@@ -718,28 +718,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9501620998049571</v>
+        <v>0.9515456963671248</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04200060818236147</v>
+        <v>0.03798748365847392</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9223821809425525</v>
+        <v>0.906551633239108</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05123806794808589</v>
+        <v>0.06088413461912069</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7545454545454545</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08762999777579215</v>
+        <v>0.08167375420015648</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8265242844446952</v>
+        <v>0.8398806926919893</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0632352253574678</v>
+        <v>0.05474347521179271</v>
       </c>
     </row>
     <row r="10">
@@ -749,28 +749,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9457888936460366</v>
+        <v>0.9461725774225774</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03661345954410972</v>
+        <v>0.03957138859953284</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7699066730371078</v>
+        <v>0.7606859070464768</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06890832398860543</v>
+        <v>0.08493291810372661</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8534632034632035</v>
+        <v>0.8580086580086579</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06925087807288752</v>
+        <v>0.08299504056452185</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8082676468306305</v>
+        <v>0.8041141935361831</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06212168260891618</v>
+        <v>0.07455398431452753</v>
       </c>
     </row>
     <row r="12">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9237977560518057</v>
+        <v>0.9262419279194776</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8761904761904762</v>
+        <v>0.8932038834951457</v>
       </c>
       <c r="D15" t="n">
         <v>0.8679245283018868</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8720379146919431</v>
+        <v>0.8803827751196173</v>
       </c>
     </row>
     <row r="16">
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9744759911973737</v>
+        <v>0.9726541361520978</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8363636363636363</v>
+        <v>0.808695652173913</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.8416289592760181</v>
       </c>
     </row>
     <row r="17">
@@ -852,16 +852,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9918287095494066</v>
+        <v>0.9897633392258018</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9550561797752809</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9108910891089109</v>
+        <v>0.8717948717948718</v>
       </c>
     </row>
     <row r="18">
@@ -871,16 +871,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9684151664922976</v>
+        <v>0.9601717233666439</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9540229885057471</v>
+        <v>0.927710843373494</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7830188679245284</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8601036269430051</v>
+        <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="19">
@@ -890,16 +890,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9521267000974061</v>
+        <v>0.9499621198455932</v>
       </c>
       <c r="C19" t="n">
-        <v>0.752</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8867924528301887</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8138528138528138</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
@@ -909,16 +909,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9643205021826183</v>
+        <v>0.9661243190591291</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9375</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.8686868686868687</v>
       </c>
     </row>
     <row r="21">
@@ -928,16 +928,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9521447382661713</v>
+        <v>0.9509722572964393</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7786885245901639</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8962264150943396</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8122270742358079</v>
       </c>
     </row>
   </sheetData>
@@ -2391,28 +2391,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8801889875997018</v>
+        <v>0.8930076074718931</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03458818380009469</v>
+        <v>0.04556322420083495</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8201728826728825</v>
+        <v>0.8076752388216919</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1014254963346825</v>
+        <v>0.06704164161417245</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7935064935064935</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07261380552817924</v>
+        <v>0.09029502979920412</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8002153048936261</v>
+        <v>0.8105313793541618</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05375342326161874</v>
+        <v>0.05444731324815148</v>
       </c>
     </row>
     <row r="5">
@@ -2422,28 +2422,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9702776390276389</v>
+        <v>0.9699484642341785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02094064845092177</v>
+        <v>0.02210364293293271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8619022556390977</v>
+        <v>0.8513999364928158</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06769190229058693</v>
+        <v>0.07752241821596924</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8160173160173159</v>
+        <v>0.8019480519480519</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04926323236684434</v>
+        <v>0.06628644313314142</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8360793541398488</v>
+        <v>0.8233895159638747</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03808681909261494</v>
+        <v>0.05531177048194304</v>
       </c>
     </row>
     <row r="6">
@@ -2453,28 +2453,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9910077026148455</v>
+        <v>0.9809542540792542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007714499528352137</v>
+        <v>0.00910131265560076</v>
       </c>
       <c r="D6" t="n">
-        <v>0.969579279080053</v>
+        <v>0.947052090066796</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03073204602827501</v>
+        <v>0.0463861447641337</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7361471861471862</v>
+        <v>0.6225108225108226</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09212976598310435</v>
+        <v>0.06029760714994601</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8337724968529923</v>
+        <v>0.7485676880413722</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06164071552501225</v>
+        <v>0.04053784378088929</v>
       </c>
     </row>
     <row r="7">
@@ -2484,28 +2484,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9577912960055818</v>
+        <v>0.9444399846185559</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02599608612009955</v>
+        <v>0.03472506552771284</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8816795051353875</v>
+        <v>0.9029553663570692</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08701194137785064</v>
+        <v>0.06031971286549593</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7216450216450216</v>
+        <v>0.6759740259740259</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1128874517807484</v>
+        <v>0.1185627670854047</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7873121913896088</v>
+        <v>0.7637620548612204</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08220631213743207</v>
+        <v>0.07388747837918311</v>
       </c>
     </row>
     <row r="8">
@@ -2515,28 +2515,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.953670634920635</v>
+        <v>0.9523967302538731</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03088611569232902</v>
+        <v>0.03174512839742561</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7526641002237076</v>
+        <v>0.735536223036223</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05786267603414144</v>
+        <v>0.07138701478639019</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8720779220779221</v>
+        <v>0.8625541125541126</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08023532460413361</v>
+        <v>0.07860004487651664</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8054611756876646</v>
+        <v>0.7921323021962409</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05306337911774464</v>
+        <v>0.06584479891776572</v>
       </c>
     </row>
     <row r="9">
@@ -2546,28 +2546,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.957070905285191</v>
+        <v>0.9606858022929453</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03689523958864937</v>
+        <v>0.0300222845893885</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8991573240141351</v>
+        <v>0.880047846889952</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08775458450796338</v>
+        <v>0.06051122087856722</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7313852813852814</v>
+        <v>0.772943722943723</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1288795192168517</v>
+        <v>0.05307622360238817</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7980713411435566</v>
+        <v>0.8215369589759833</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09747433202927559</v>
+        <v>0.04344812622872077</v>
       </c>
     </row>
     <row r="10">
@@ -2577,28 +2577,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.954217944753659</v>
+        <v>0.9533098052740911</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03177504542670831</v>
+        <v>0.03385005189457263</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7500737306172088</v>
+        <v>0.740060273060273</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06350505835631735</v>
+        <v>0.0662294446424853</v>
       </c>
       <c r="F10" t="n">
         <v>0.8720779220779221</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08023532460413361</v>
+        <v>0.08570143985248287</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8040396017419635</v>
+        <v>0.7986391191092432</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05816511604590303</v>
+        <v>0.06515300095916556</v>
       </c>
     </row>
     <row r="12">
@@ -2642,16 +2642,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8867563764926585</v>
+        <v>0.9254121721562827</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.8532110091743119</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.8651162790697674</v>
       </c>
     </row>
     <row r="16">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9685775100111838</v>
+        <v>0.9675673725603376</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8383838383838383</v>
+        <v>0.8155339805825242</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7830188679245284</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8097560975609757</v>
+        <v>0.8038277511961722</v>
       </c>
     </row>
     <row r="17">
@@ -2680,16 +2680,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9922796637685343</v>
+        <v>0.985172625275082</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7735849056603774</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8631578947368421</v>
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="18">
@@ -2699,16 +2699,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9702189833688084</v>
+        <v>0.9676395252353981</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9176470588235294</v>
+        <v>0.9101123595505618</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7358490566037735</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8167539267015707</v>
+        <v>0.8307692307692308</v>
       </c>
     </row>
     <row r="19">
@@ -2718,16 +2718,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9574479598831126</v>
+        <v>0.9553374941375952</v>
       </c>
       <c r="C19" t="n">
-        <v>0.753968253968254</v>
+        <v>0.7218045112781954</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8962264150943396</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8189655172413793</v>
+        <v>0.803347280334728</v>
       </c>
     </row>
     <row r="20">
@@ -2737,16 +2737,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9647534182329809</v>
+        <v>0.9675493343915725</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8913043478260869</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7735849056603774</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8282828282828283</v>
+        <v>0.845771144278607</v>
       </c>
     </row>
     <row r="21">
@@ -2756,16 +2756,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9603160287167647</v>
+        <v>0.9588549370467909</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7698412698412699</v>
+        <v>0.7404580152671756</v>
       </c>
       <c r="D21" t="n">
         <v>0.9150943396226415</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8362068965517241</v>
+        <v>0.8185654008438819</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8818814221492792</v>
+        <v>0.8694156537906537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03172191709779444</v>
+        <v>0.05496531869537426</v>
       </c>
       <c r="D4" t="n">
-        <v>0.832011624426485</v>
+        <v>0.8282071280075721</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09620061904704308</v>
+        <v>0.09454230792320591</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7928571428571429</v>
+        <v>0.76991341991342</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05074407466810438</v>
+        <v>0.09420956819282796</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8099547836340684</v>
+        <v>0.7954758237288015</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06425753709392754</v>
+        <v>0.08116904129689664</v>
       </c>
     </row>
     <row r="5">
@@ -2879,28 +2879,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9762943009371581</v>
+        <v>0.9740777278277278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0205085674734797</v>
+        <v>0.02228892676620542</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9136998746867168</v>
+        <v>0.8956843814080656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0707422176012165</v>
+        <v>0.07238843682551725</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8207792207792208</v>
+        <v>0.8255411255411256</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07872244083315241</v>
+        <v>0.07642378681565407</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8628775827556314</v>
+        <v>0.8573771459738859</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06379927087176528</v>
+        <v>0.06400013638257991</v>
       </c>
     </row>
     <row r="6">
@@ -2910,28 +2910,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9882730463980464</v>
+        <v>0.9805299561549561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01204509565489152</v>
+        <v>0.01037055240336281</v>
       </c>
       <c r="D6" t="n">
-        <v>0.963186274509804</v>
+        <v>0.9561139840551606</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03014143897882044</v>
+        <v>0.03630871694383378</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7361471861471861</v>
+        <v>0.6136363636363635</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04105085494440035</v>
+        <v>0.06999914329631274</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8340585524796051</v>
+        <v>0.7454251940010455</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03404294063762105</v>
+        <v>0.05397022592144006</v>
       </c>
     </row>
     <row r="7">
@@ -2941,28 +2941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9544107281607281</v>
+        <v>0.9504325238253811</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03139673831082442</v>
+        <v>0.02911611286656606</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9088725490196079</v>
+        <v>0.8941062214359429</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06740586441458853</v>
+        <v>0.07719740790422289</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7170995670995671</v>
+        <v>0.7073593073593074</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09221922372891915</v>
+        <v>0.07563254989354444</v>
       </c>
       <c r="H7" t="n">
-        <v>0.800126293964548</v>
+        <v>0.7859993507169374</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0768196614682054</v>
+        <v>0.05442659441890836</v>
       </c>
     </row>
     <row r="8">
@@ -2972,28 +2972,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9592787173144316</v>
+        <v>0.9591825040039327</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02992970751240772</v>
+        <v>0.03233013622062242</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7301058572722741</v>
+        <v>0.7202592747429704</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07966632188785469</v>
+        <v>0.08439502027231614</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8634199134199134</v>
+        <v>0.8538961038961039</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06479385801066621</v>
+        <v>0.07475057379347315</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7887476763699061</v>
+        <v>0.7787889860769336</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06238075977808094</v>
+        <v>0.07145733079537539</v>
       </c>
     </row>
     <row r="9">
@@ -3003,28 +3003,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9581452872524302</v>
+        <v>0.9599789892647035</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02589723034684736</v>
+        <v>0.03289699919702015</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8940070150867363</v>
+        <v>0.9071647869674185</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07617426772124321</v>
+        <v>0.07341659473392143</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7688311688311689</v>
+        <v>0.7733766233766233</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07783063417478475</v>
+        <v>0.09702210434468295</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8248636143372986</v>
+        <v>0.8326709228098904</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06588042960929361</v>
+        <v>0.07827799544487264</v>
       </c>
     </row>
     <row r="10">
@@ -3034,16 +3034,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9605441582227296</v>
+        <v>0.9604141096998239</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03020446047223766</v>
+        <v>0.03171081609103283</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7536618223710162</v>
+        <v>0.7316076977545938</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09094261005940667</v>
+        <v>0.07283811014936427</v>
       </c>
       <c r="F10" t="n">
         <v>0.8586580086580087</v>
@@ -3052,10 +3052,10 @@
         <v>0.07327439276698511</v>
       </c>
       <c r="H10" t="n">
-        <v>0.798619779610131</v>
+        <v>0.7871781912124849</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0660950908144448</v>
+        <v>0.05909574218585876</v>
       </c>
     </row>
     <row r="12">
@@ -3099,16 +3099,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9063819041090948</v>
+        <v>0.9494750892889354</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8557692307692307</v>
+        <v>0.9238095238095239</v>
       </c>
       <c r="D15" t="n">
-        <v>0.839622641509434</v>
+        <v>0.9150943396226415</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.919431279620853</v>
       </c>
     </row>
     <row r="16">
@@ -3118,16 +3118,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9859121901944514</v>
+        <v>0.9847577473934847</v>
       </c>
       <c r="C16" t="n">
-        <v>0.898989898989899</v>
+        <v>0.8725490196078431</v>
       </c>
       <c r="D16" t="n">
         <v>0.839622641509434</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8682926829268293</v>
+        <v>0.8557692307692307</v>
       </c>
     </row>
     <row r="17">
@@ -3137,16 +3137,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9888524117031638</v>
+        <v>0.9840091633897327</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9651162790697675</v>
+        <v>0.9375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7830188679245284</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8645833333333334</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="18">
@@ -3156,16 +3156,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9757747393484614</v>
+        <v>0.9811501136404632</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.9157894736842105</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7735849056603774</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8656716417910447</v>
       </c>
     </row>
     <row r="19">
@@ -3175,16 +3175,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9695876474620296</v>
+        <v>0.9699303726685667</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7322834645669292</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8773584905660378</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7982832618025751</v>
+        <v>0.7931034482758621</v>
       </c>
     </row>
     <row r="20">
@@ -3194,16 +3194,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9786969226884088</v>
+        <v>0.9790757242324759</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="D20" t="n">
         <v>0.8301886792452831</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8712871287128713</v>
+        <v>0.8627450980392157</v>
       </c>
     </row>
     <row r="21">
@@ -3213,16 +3213,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9729427468523396</v>
+        <v>0.9732854720588766</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7661290322580645</v>
+        <v>0.752</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8962264150943396</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.8138528138528138</v>
       </c>
     </row>
   </sheetData>
@@ -3305,28 +3305,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8556768033553748</v>
+        <v>0.8585279403136546</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03418281749962466</v>
+        <v>0.06488796374813434</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8064513556618819</v>
+        <v>0.8173000113921166</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09940157608711273</v>
+        <v>0.09953577568835591</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7456709956709957</v>
+        <v>0.7512987012987012</v>
       </c>
       <c r="G4" t="n">
-        <v>0.053958655611798</v>
+        <v>0.1232529569324407</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7731953834279416</v>
+        <v>0.7778112062938672</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06977627491390187</v>
+        <v>0.09130988409178563</v>
       </c>
     </row>
     <row r="5">
@@ -3336,28 +3336,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.975771569700141</v>
+        <v>0.97496336996337</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01676365909502738</v>
+        <v>0.01787203226878132</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9018326118326119</v>
+        <v>0.8929261559696343</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07578002965531845</v>
+        <v>0.08447921710752611</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8114718614718613</v>
+        <v>0.8067099567099566</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0814523188029435</v>
+        <v>0.09065130426205796</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8507652018038023</v>
+        <v>0.8434718361717796</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05883742482912969</v>
+        <v>0.06874074544456323</v>
       </c>
     </row>
     <row r="6">
@@ -3367,28 +3367,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9887795438688295</v>
+        <v>0.9777706420563563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008863885815817242</v>
+        <v>0.01158456664905382</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9661309523809525</v>
+        <v>0.9436767399267399</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03395305090169187</v>
+        <v>0.05335084376267719</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6753246753246753</v>
+        <v>0.5991341991341992</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05972614175359437</v>
+        <v>0.05980296602365066</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7938579756226816</v>
+        <v>0.730839389809978</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04857750095304177</v>
+        <v>0.04865754444730658</v>
       </c>
     </row>
     <row r="7">
@@ -3398,28 +3398,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9549498517355659</v>
+        <v>0.9469621251764109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03024720300050537</v>
+        <v>0.0332993980565265</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8849887921675847</v>
+        <v>0.8792053049289892</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08776226339948576</v>
+        <v>0.1048213215812431</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7075757575757575</v>
+        <v>0.6943722943722943</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09201782150090808</v>
+        <v>0.1241443418751327</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7837519850004551</v>
+        <v>0.7707984902721745</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07905139875007573</v>
+        <v>0.1027509346618297</v>
       </c>
     </row>
     <row r="8">
@@ -3429,28 +3429,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9605073299716155</v>
+        <v>0.9597990303347448</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02759670814699682</v>
+        <v>0.02934141986350455</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7492090722850583</v>
+        <v>0.7296413894705724</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09019833169670703</v>
+        <v>0.09404660947021187</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8818181818181818</v>
+        <v>0.8772727272727272</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07145611432765878</v>
+        <v>0.06804975873019091</v>
       </c>
       <c r="H8" t="n">
-        <v>0.80670184733552</v>
+        <v>0.7927554826713015</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07149293157323351</v>
+        <v>0.07039488132764417</v>
       </c>
     </row>
     <row r="9">
@@ -3460,28 +3460,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9451744485673057</v>
+        <v>0.9555723443223443</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03927409180352586</v>
+        <v>0.03044537082103183</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8661275952028408</v>
+        <v>0.8565238095238094</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1169348880958243</v>
+        <v>0.1122893189776418</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7082251082251083</v>
+        <v>0.7543290043290043</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1004329004329004</v>
+        <v>0.1206513388373252</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7730668738495514</v>
+        <v>0.7975641463075186</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08407649911763659</v>
+        <v>0.1055824121728341</v>
       </c>
     </row>
     <row r="10">
@@ -3491,28 +3491,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9620465249036678</v>
+        <v>0.9607911532911532</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02732972053016385</v>
+        <v>0.02896601637411813</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7526568226696104</v>
+        <v>0.7420367273628143</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1058348700290744</v>
+        <v>0.1024223539122615</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8772727272727273</v>
+        <v>0.8772727272727272</v>
       </c>
       <c r="G10" t="n">
         <v>0.06804975873019091</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8041614659177588</v>
+        <v>0.7990488199210802</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06963367870509587</v>
+        <v>0.07414891176533278</v>
       </c>
     </row>
     <row r="12">
@@ -3556,16 +3556,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8876853421840615</v>
+        <v>0.9280547638803708</v>
       </c>
       <c r="C15" t="n">
-        <v>0.819047619047619</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8151658767772512</v>
+        <v>0.8857142857142857</v>
       </c>
     </row>
     <row r="16">
@@ -3575,16 +3575,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9783361593131065</v>
+        <v>0.9775605180562069</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8811881188118812</v>
+        <v>0.8686868686868687</v>
       </c>
       <c r="D16" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8599033816425121</v>
+        <v>0.8390243902439024</v>
       </c>
     </row>
     <row r="17">
@@ -3594,16 +3594,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9906742667484397</v>
+        <v>0.9824037663696381</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9753086419753086</v>
+        <v>0.9558823529411765</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7452830188679245</v>
+        <v>0.6132075471698113</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8449197860962567</v>
+        <v>0.7471264367816092</v>
       </c>
     </row>
     <row r="18">
@@ -3613,16 +3613,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9693892276056135</v>
+        <v>0.9681987084671164</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9438202247191011</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8223350253807107</v>
       </c>
     </row>
     <row r="19">
@@ -3632,16 +3632,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9585663263465494</v>
+        <v>0.9584220209964284</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7642276422764228</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8867924528301887</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8209606986899564</v>
+        <v>0.8122270742358079</v>
       </c>
     </row>
     <row r="20">
@@ -3651,16 +3651,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9684151664922978</v>
+        <v>0.9355676611710378</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8877551020408163</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8207547169811321</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.6257668711656442</v>
       </c>
     </row>
     <row r="21">
@@ -3670,16 +3670,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9611818608174898</v>
+        <v>0.9606587539233017</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7704918032786885</v>
+        <v>0.775</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8867924528301887</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8245614035087719</v>
+        <v>0.8230088495575221</v>
       </c>
     </row>
   </sheetData>
